--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,169 +55,175 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
@@ -226,54 +232,45 @@
     <t>works</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>wish</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>also</t>
+    <t>worth</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -283,19 +280,16 @@
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -656,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +743,13 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -775,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -793,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3643410852713178</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -867,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.303030303030303</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -925,13 +919,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8730650154798761</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>564</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>564</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +945,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>562</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>562</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1003,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M10">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1023,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1049,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7012987012987013</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1081,13 +1075,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6986301369863014</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,13 +1101,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6813559322033899</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1133,13 +1127,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6476725521669342</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>807</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>807</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>439</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1159,13 +1153,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.6348314606741573</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>791</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>791</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1185,13 +1179,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1211,13 +1205,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6197183098591549</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1237,13 +1231,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1263,13 +1257,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5918367346938775</v>
+        <v>0.609375</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1289,13 +1283,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5882352941176471</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1307,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1315,13 +1309,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5625</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1341,13 +1335,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1359,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1367,13 +1361,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5571428571428572</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1393,13 +1387,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5542168674698795</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1411,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1419,13 +1413,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5538461538461539</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1445,13 +1439,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5485714285714286</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L27">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1471,13 +1465,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5389221556886228</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L28">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1497,13 +1491,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1523,13 +1517,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5288461538461539</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1549,13 +1543,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5263157894736842</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1575,13 +1569,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5238095238095238</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1601,13 +1595,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5098039215686274</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1627,13 +1621,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.4871794871794872</v>
+        <v>0.48</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1645,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1653,13 +1647,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.47</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1671,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1679,13 +1673,13 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1697,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1705,13 +1699,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4216867469879518</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L37">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1723,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1731,13 +1725,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4060150375939849</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1749,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1757,13 +1751,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3970588235294117</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1775,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1783,13 +1777,13 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3833333333333334</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1801,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1809,13 +1803,13 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3770491803278688</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1835,13 +1829,13 @@
         <v>52</v>
       </c>
       <c r="K42">
-        <v>0.3709677419354839</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1853,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1861,13 +1855,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3650793650793651</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1879,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1887,13 +1881,13 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3627450980392157</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L44">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="M44">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1905,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>260</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1913,13 +1907,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3579766536964981</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L45">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="M45">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1931,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>165</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1939,13 +1933,13 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3552631578947368</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1957,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1965,13 +1959,13 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3513513513513514</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1983,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1991,13 +1985,13 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.316546762589928</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2009,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2017,13 +2011,13 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.310958904109589</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L49">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2035,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>503</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2043,13 +2037,13 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3082706766917293</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2061,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2069,13 +2063,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2966507177033493</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L51">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="M51">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2087,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>147</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2095,13 +2089,13 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2592592592592592</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2113,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2121,13 +2115,13 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2574257425742574</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2139,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>75</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2147,13 +2141,13 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2522522522522522</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2165,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2173,13 +2167,13 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2486544671689989</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L55">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2191,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>698</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2199,13 +2193,13 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.219047619047619</v>
+        <v>0.2282023681377826</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2217,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>82</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2225,25 +2219,25 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2185430463576159</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2251,13 +2245,13 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2147651006711409</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2269,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2277,13 +2271,13 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2066225165562914</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L59">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="M59">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2295,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>599</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2303,25 +2297,25 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2053571428571428</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2329,13 +2323,13 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1880877742946709</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L61">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="M61">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2347,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>259</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2355,25 +2349,25 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1810810810810811</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L62">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>303</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2381,25 +2375,25 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1768292682926829</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>135</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2407,13 +2401,13 @@
         <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1764705882352941</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L64">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M64">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2425,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2433,13 +2427,13 @@
         <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1692307692307692</v>
+        <v>0.1535087719298246</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2451,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>108</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2459,25 +2453,25 @@
         <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1549815498154982</v>
+        <v>0.1534653465346535</v>
       </c>
       <c r="L66">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>229</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2485,13 +2479,13 @@
         <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1428571428571428</v>
+        <v>0.1455847255369928</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2503,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>174</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2511,7 +2505,7 @@
         <v>78</v>
       </c>
       <c r="K68">
-        <v>0.137037037037037</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L68">
         <v>37</v>
@@ -2529,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2537,13 +2531,13 @@
         <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1359649122807018</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L69">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2555,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>394</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2563,13 +2557,13 @@
         <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1349693251533742</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2581,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>141</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2589,25 +2583,25 @@
         <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1339712918660287</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L71">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M71">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>362</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2615,13 +2609,13 @@
         <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1305841924398626</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2633,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2641,25 +2635,25 @@
         <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1292682926829268</v>
+        <v>0.1227272727272727</v>
       </c>
       <c r="L73">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M73">
         <v>54</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2667,13 +2661,13 @@
         <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1204545454545455</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L74">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M74">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2685,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2693,13 +2687,13 @@
         <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1092436974789916</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L75">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="M75">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2711,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>212</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2719,25 +2713,25 @@
         <v>86</v>
       </c>
       <c r="K76">
-        <v>0.0718954248366013</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L76">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N76">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>994</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2745,25 +2739,25 @@
         <v>87</v>
       </c>
       <c r="K77">
-        <v>0.07103825136612021</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>340</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2771,25 +2765,25 @@
         <v>88</v>
       </c>
       <c r="K78">
-        <v>0.06743185078909612</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="L78">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>650</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2797,13 +2791,13 @@
         <v>89</v>
       </c>
       <c r="K79">
-        <v>0.06088560885608856</v>
+        <v>0.04981549815498155</v>
       </c>
       <c r="L79">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2815,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2823,25 +2817,25 @@
         <v>90</v>
       </c>
       <c r="K80">
-        <v>0.05583756345177665</v>
+        <v>0.04222648752399232</v>
       </c>
       <c r="L80">
         <v>22</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>372</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2849,77 +2843,25 @@
         <v>91</v>
       </c>
       <c r="K81">
-        <v>0.04242424242424243</v>
+        <v>0.0398959236773634</v>
       </c>
       <c r="L81">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M81">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K82">
-        <v>0.0421455938697318</v>
-      </c>
-      <c r="L82">
-        <v>22</v>
-      </c>
-      <c r="M82">
-        <v>22</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K83">
-        <v>0.02879581151832461</v>
-      </c>
-      <c r="L83">
-        <v>22</v>
-      </c>
-      <c r="M83">
-        <v>25</v>
-      </c>
-      <c r="N83">
-        <v>0.88</v>
-      </c>
-      <c r="O83">
-        <v>0.12</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>742</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
